--- a/业主导入模板.xlsx
+++ b/业主导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webStormProject\property_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A4CB8-3321-4FC2-893A-59FA2D55FFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F1F33-25E6-42BC-A45B-B6B703A6FD0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="20670" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4240,13 +4240,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1249" xr:uid="{B07AA986-DA99-4DB8-A9AD-D80D8F0AFFC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{B07AA986-DA99-4DB8-A9AD-D80D8F0AFFC5}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D433" xr:uid="{5D4FF4E6-D322-4EA7-8E0A-F6E247F44B0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{5D4FF4E6-D322-4EA7-8E0A-F6E247F44B0E}">
       <formula1>"A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E585" xr:uid="{FC9993B5-589B-4440-8A9A-698EB4283E3B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{FC9993B5-589B-4440-8A9A-698EB4283E3B}">
       <formula1>101</formula1>
       <formula2>2608</formula2>
     </dataValidation>
